--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-Desktop\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2410EC3A-E803-4A78-9818-15AD544185D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9330D5C0-44DE-4EC5-BAB8-33D88683B9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="4650" windowWidth="12255" windowHeight="7815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Index" sheetId="1" r:id="rId1"/>
     <sheet name="Grafico Categoria" sheetId="3" r:id="rId2"/>
     <sheet name="Grafico Voti" sheetId="4" r:id="rId3"/>
+    <sheet name="Grafico Rimborsi" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="17" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="47">
   <si>
     <t>N</t>
   </si>
@@ -443,34 +444,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>Torneo Prov U17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Torneo Prov U15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Giovanissimi U14 Prov</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Amichevole U15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Allievi U18 Reg</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Allievi U17 Reg</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Allievi U17 Prov</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Allievi U16 Reg</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Allievi U16 Prov</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Allievi U15 Femm</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Allievi U16 Prov</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Allievi U16 Reg</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Allievi U17 Prov</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Allievi U17 Reg</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Allievi U18 Reg</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Amichevole U15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Giovanissimi U14 Prov</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Torneo Prov U15</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Torneo Prov U17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -485,28 +486,28 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1</c:v>
@@ -1008,6 +1009,433 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Grafico Rimborsi'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Rimborso </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Grafico Rimborsi'!$A$2:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>Scanzorosciate Calcio - Aurora Seriate</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sported Maris - Torrazzo Malagnino</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Oratorio Calvenzano -Barianese </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Albano Calcio - Nova Montello</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Paladina - Caravaggio</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cividatese - Farese</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Fiorente Colognola - Mapello</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Calcio Brusaporto - Uesse Sarnico</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Monterosso - Zanconti</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Tritium Calcio - Comun Nuovo</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Cisanese - Lombardia 1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Accademia Isolabergamasca - Paladina</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Atalanta Bergamasca - Aurora Pro Patria</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Cisanese - Missaglia Maresso</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Academy Brianzaolginatese - Talamonese</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Uesse Sarnico - Rappresentativa Giovanissimi</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Osio Sopra - Vidalengo</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Atletico Villongo - Valcalepio</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Grentarcadia - Niguarda Calcio</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Cavernago - Calcinatese</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Colognese - Real Calepina </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Pozzuolo Calcio - Real Milan</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Forza E Costanza - Calcio Oratorio Cologno</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Fornovo S.Giovanni - Osio Sopra</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Academy Fiorente - Treviglio Calcio</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Usse Sarnico - Breno</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Grafico Rimborsi'!$B$2:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* "-"??\ [$€-410]_-;_-@_-</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-598C-4795-AB8C-3ABAC421BEE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1029023567"/>
+        <c:axId val="1029026479"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1029023567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1029026479"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1029026479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1029023567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1088,6 +1516,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -1594,6 +2062,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2191,10 +3175,51 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{200E4724-9A13-4006-BB62-CE531D2E105B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="PC-Desktop" refreshedDate="45378.675371527781" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="26" xr:uid="{11D6EA6D-4FB0-4F81-99AB-5E850257C8D8}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:F27" sheet="Foglio1"/>
+    <worksheetSource ref="A1:F27" sheet="Index"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="N" numFmtId="0">
@@ -2449,7 +3474,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E56D76F3-D996-43AC-91F8-CC08AD812528}" name="Tabella pivot10" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E56D76F3-D996-43AC-91F8-CC08AD812528}" name="Tabella pivot10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -2473,18 +3498,18 @@
         </ext>
       </extLst>
     </pivotField>
-    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
       <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="5"/>
         <item x="4"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item x="1"/>
-        <item x="0"/>
       </items>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
@@ -2870,8 +3895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDDDE16-0478-D546-BAE6-AAB2A2531FB3}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3440,7 +4465,7 @@
   <dimension ref="A3:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3459,7 +4484,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B4" s="11">
         <v>1</v>
@@ -3467,71 +4492,71 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B5" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B6" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B7" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B8" s="11">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B9" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B10" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B11" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B12" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B13" s="11">
         <v>1</v>
@@ -3539,7 +4564,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3613,4 +4639,240 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768B6D12-5FB0-470C-8BA3-0A6821D9A2F2}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="2">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>